--- a/HZ.xlsx
+++ b/HZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harp\Documents\GitHub\WAT_HabMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6E63FC8-5BEA-4683-9887-9C4AE075940B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DDE52C-D481-47DA-828B-2CB88F907892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2688509C-A414-418E-ABB2-8E3FFCC8A9AD}"/>
   </bookViews>
@@ -38,10 +38,10 @@
     <t>Month</t>
   </si>
   <si>
-    <t>SST_HZ</t>
+    <t>SST</t>
   </si>
   <si>
-    <t>CHL_HZ</t>
+    <t>CHL</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
